--- a/presentation/graph.xlsx
+++ b/presentation/graph.xlsx
@@ -8,20 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuriseok/Downloads/yonsei_genai_project/yonsei-research-assistant/yonsei-research-assistant/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F140EF-3124-214E-A881-7402A6E13D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937648CA-8238-6D4E-8CF9-D1F01A4CCF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="38400" windowHeight="22200" xr2:uid="{C6343E2A-2BF7-6346-B55C-CD49FA5CAA76}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="38400" windowHeight="22160" xr2:uid="{C6343E2A-2BF7-6346-B55C-CD49FA5CAA76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$C$37</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$38</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$D$36:$F$36</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$D$37:$F$37</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$D$38:$F$38</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3623,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4686D3E1-1C24-AE4B-BBBF-F157BD73D536}">
   <dimension ref="C7:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
